--- a/ExcelOutput/FFRankings.xlsx
+++ b/ExcelOutput/FFRankings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="0" windowWidth="19320" windowHeight="9540" tabRatio="500"/>
+    <workbookView xWindow="735" yWindow="0" windowWidth="19320" windowHeight="9540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
@@ -870,7 +870,163 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1255,15 +1411,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="4.125" style="5" customWidth="1"/>
     <col min="3" max="3" width="34.625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.875" style="5" customWidth="1"/>
@@ -1731,7 +1890,7 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1752,7 +1911,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B5:D15 B17:D27 B29:D39</xm:sqref>
+          <xm:sqref>B15:D15 B27:D27 B39:D39 C5:D14 C17:D26 C29:D38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{FC4FC4EE-048E-134E-A35F-8F5FD6273475}">
@@ -1824,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
